--- a/qualtcom/Procesos/Calidad/Checklist_Organizacional_150330.xlsx
+++ b/qualtcom/Procesos/Calidad/Checklist_Organizacional_150330.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -537,9 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -578,24 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -605,29 +591,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -644,39 +615,69 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1073,13 +1074,13 @@
     <row r="1" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -1095,23 +1096,23 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="B7" s="4" t="s">
@@ -1290,182 +1291,182 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="33"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="33"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="33"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1482,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK33"/>
+  <dimension ref="A1:AMK36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1512,425 +1513,430 @@
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="13.15" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="26.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="50"/>
+      <c r="D5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="51"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="50"/>
+      <c r="D6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="51"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="51"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="50"/>
+      <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="51"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="50"/>
+      <c r="D9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="53"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="54"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="50"/>
+      <c r="D11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B12" s="54"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="50"/>
+      <c r="D12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="54"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="54"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="50"/>
+      <c r="D14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="54"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="54"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="54"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="2:8" ht="15.75">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" ht="26.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="50"/>
+      <c r="D19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="2:8" ht="15.75">
-      <c r="B20" s="49"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="50"/>
+      <c r="D20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="2:8" ht="13.15" customHeight="1">
-      <c r="B21" s="49"/>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="50"/>
+      <c r="D21" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" ht="15.75">
-      <c r="B22" s="49"/>
-      <c r="C22" s="38" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="50"/>
+      <c r="D22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="2:8" ht="15.75">
-      <c r="B23" s="49"/>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="50"/>
+      <c r="D23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="2:8" ht="15.75">
-      <c r="B24" s="49"/>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="50"/>
+      <c r="D24" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="2:8" ht="15.75">
-      <c r="B25" s="49"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="50"/>
+      <c r="D25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="53"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="2:8" ht="16.5">
-      <c r="B27" s="49"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="55"/>
+      <c r="D27" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="B28" s="49"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="55"/>
+      <c r="D28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="2:8" ht="15.75">
-      <c r="B29" s="49"/>
-      <c r="C29" s="38" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="55"/>
+      <c r="D29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="2:8" ht="15.75">
-      <c r="B30" s="49"/>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="55"/>
+      <c r="D30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="2:8" ht="15.75">
-      <c r="B31" s="49"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="55"/>
+      <c r="D31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="2:8" ht="15.75">
-      <c r="B32" s="49"/>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="55"/>
+      <c r="D32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="2:8" ht="15.75">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="C36" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1959,272 +1965,272 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:8" ht="36.6" customHeight="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="2:8" ht="30.6" customHeight="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
